--- a/Selector Summary.xlsx
+++ b/Selector Summary.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -93,6 +94,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -114,6 +116,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -181,7 +184,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -197,7 +200,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,7 +228,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O22" activeCellId="0" sqref="O22"/>
+      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1191,4 +1194,30 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Selector Summary.xlsx
+++ b/Selector Summary.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Few Classes" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="All Classes" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t xml:space="preserve">SelectorCV</t>
   </si>
@@ -78,16 +78,26 @@
   </si>
   <si>
     <t xml:space="preserve">Average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SelectorConstant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0_);\(#,##0\)"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -167,7 +177,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -208,6 +218,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -227,8 +245,8 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D38" activeCellId="0" sqref="D38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M37" activeCellId="0" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1201,17 +1219,174 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="10" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="16.11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11" t="n">
+        <v>0.674157303370787</v>
+      </c>
+      <c r="C2" s="11" t="n">
+        <v>0.623595505617977</v>
+      </c>
+      <c r="D2" s="11" t="n">
+        <v>0.617977528089888</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <v>0.640449438202247</v>
+      </c>
+      <c r="F2" s="11" t="n">
+        <v>0.617977528089888</v>
+      </c>
+      <c r="G2" s="11" t="n">
+        <f aca="false">AVERAGE(B2:F2)</f>
+        <v>0.634831460674157</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="n">
+        <v>0.668539325842697</v>
+      </c>
+      <c r="C3" s="11" t="n">
+        <v>0.662921348314607</v>
+      </c>
+      <c r="D3" s="11" t="n">
+        <v>0.617977528089888</v>
+      </c>
+      <c r="E3" s="11" t="n">
+        <v>0.640449438202247</v>
+      </c>
+      <c r="F3" s="11" t="n">
+        <v>0.651685393258427</v>
+      </c>
+      <c r="G3" s="11" t="n">
+        <f aca="false">AVERAGE(B3:F3)</f>
+        <v>0.648314606741573</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="n">
+        <v>0.578651685393258</v>
+      </c>
+      <c r="C4" s="11" t="n">
+        <v>0.623595505617977</v>
+      </c>
+      <c r="D4" s="11" t="n">
+        <v>0.578651685393258</v>
+      </c>
+      <c r="E4" s="11" t="n">
+        <v>0.657303370786517</v>
+      </c>
+      <c r="F4" s="11" t="n">
+        <v>0.589887640449438</v>
+      </c>
+      <c r="G4" s="11" t="n">
+        <f aca="false">AVERAGE(B4:F4)</f>
+        <v>0.60561797752809</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11" t="n">
+        <v>0.606741573033708</v>
+      </c>
+      <c r="C5" s="11" t="n">
+        <v>0.662921348314607</v>
+      </c>
+      <c r="D5" s="11" t="n">
+        <v>0.612359550561798</v>
+      </c>
+      <c r="E5" s="11" t="n">
+        <v>0.606741573033708</v>
+      </c>
+      <c r="F5" s="11" t="n">
+        <v>0.584269662921348</v>
+      </c>
+      <c r="G5" s="11" t="n">
+        <f aca="false">AVERAGE(B5:F5)</f>
+        <v>0.614606741573034</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <f aca="false">AVERAGE(B2:B5)</f>
+        <v>0.632022471910112</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <f aca="false">AVERAGE(C2:C5)</f>
+        <v>0.643258426966292</v>
+      </c>
+      <c r="D6" s="11" t="n">
+        <f aca="false">AVERAGE(D2:D5)</f>
+        <v>0.606741573033708</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <f aca="false">AVERAGE(E2:E5)</f>
+        <v>0.63623595505618</v>
+      </c>
+      <c r="F6" s="11" t="n">
+        <f aca="false">AVERAGE(F2:F5)</f>
+        <v>0.610955056179775</v>
+      </c>
+      <c r="G6" s="11" t="n">
+        <f aca="false">AVERAGE(B2:F5)</f>
+        <v>0.625842696629214</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Selector Summary.xlsx
+++ b/Selector Summary.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="24">
   <si>
     <t xml:space="preserve">SelectorCV</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t xml:space="preserve">WER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">features_custom2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">features_custom3</t>
   </si>
   <si>
     <t xml:space="preserve">Avg</t>
@@ -93,11 +99,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0_);\(#,##0\)"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
+    <numFmt numFmtId="168" formatCode="0.00"/>
+    <numFmt numFmtId="169" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -177,7 +186,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,15 +223,31 @@
       <alignment horizontal="center" vertical="center" textRotation="45" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -246,7 +271,7 @@
   <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M37" activeCellId="0" sqref="M37"/>
+      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -333,13 +358,13 @@
       <c r="E3" s="3" t="n">
         <v>129.629479202</v>
       </c>
-      <c r="F3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="2" t="n">
-        <v>0.247852323118423</v>
-      </c>
-      <c r="H3" s="3" t="n">
+      <c r="F3" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G3" s="10" t="n">
+        <v>0.279260341616464</v>
+      </c>
+      <c r="H3" s="9" t="n">
         <v>-55.8635132609</v>
       </c>
       <c r="I3" s="0" t="n">
@@ -367,15 +392,15 @@
         <v>-872.181584526</v>
       </c>
       <c r="F4" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="n">
-        <v>1.40702935070294</v>
-      </c>
-      <c r="H4" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>1.54106403864716</v>
+      </c>
+      <c r="H4" s="9" t="n">
         <v>5326.0728508</v>
       </c>
-      <c r="I4" s="9" t="n">
+      <c r="I4" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J4" s="2" t="n">
@@ -399,16 +424,16 @@
       <c r="E5" s="3" t="n">
         <v>-733.102980665</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0.481936558382586</v>
-      </c>
-      <c r="H5" s="3" t="n">
+      <c r="F5" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" s="10" t="n">
+        <v>0.515748328412883</v>
+      </c>
+      <c r="H5" s="9" t="n">
         <v>1684.36952095</v>
       </c>
-      <c r="I5" s="9" t="n">
+      <c r="I5" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J5" s="2" t="n">
@@ -433,15 +458,15 @@
         <v>-823.622325721</v>
       </c>
       <c r="F6" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G6" s="2" t="n">
-        <v>1.51898497986258</v>
-      </c>
-      <c r="H6" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>1.71436310650461</v>
+      </c>
+      <c r="H6" s="9" t="n">
         <v>4518.86250704</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J6" s="2" t="n">
@@ -465,16 +490,16 @@
       <c r="E7" s="3" t="n">
         <v>-6466.75908837</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G7" s="2" t="n">
-        <v>12.8849363201152</v>
-      </c>
-      <c r="H7" s="3" t="n">
+      <c r="F7" s="9" t="n">
+        <v>13</v>
+      </c>
+      <c r="G7" s="10" t="n">
+        <v>14.3586950153112</v>
+      </c>
+      <c r="H7" s="9" t="n">
         <v>33155.4870739</v>
       </c>
-      <c r="I7" s="9" t="n">
+      <c r="I7" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J7" s="2" t="n">
@@ -501,12 +526,12 @@
         <v>198.327634515</v>
       </c>
       <c r="F8" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0.254187410289887</v>
-      </c>
-      <c r="H8" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10" t="n">
+        <v>0.277862259630638</v>
+      </c>
+      <c r="H8" s="9" t="n">
         <v>765.927165712</v>
       </c>
       <c r="I8" s="0" t="n">
@@ -534,15 +559,15 @@
         <v>-164.310862245</v>
       </c>
       <c r="F9" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G9" s="2" t="n">
-        <v>1.29787829866109</v>
-      </c>
-      <c r="H9" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10" t="n">
+        <v>1.46598556367098</v>
+      </c>
+      <c r="H9" s="9" t="n">
         <v>938.213287424</v>
       </c>
-      <c r="I9" s="9" t="n">
+      <c r="I9" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J9" s="2" t="n">
@@ -567,12 +592,12 @@
         <v>-543.54843802</v>
       </c>
       <c r="F10" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G10" s="2" t="n">
-        <v>0.521686496111215</v>
-      </c>
-      <c r="H10" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="10" t="n">
+        <v>0.579262054285209</v>
+      </c>
+      <c r="H10" s="9" t="n">
         <v>284.261432606</v>
       </c>
       <c r="I10" s="0" t="n">
@@ -600,15 +625,15 @@
         <v>-186.157748889</v>
       </c>
       <c r="F11" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>1.61330879102752</v>
-      </c>
-      <c r="H11" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" s="10" t="n">
+        <v>1.70541904751008</v>
+      </c>
+      <c r="H11" s="9" t="n">
         <v>1038.9508218</v>
       </c>
-      <c r="I11" s="9" t="n">
+      <c r="I11" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J11" s="2" t="n">
@@ -632,16 +657,16 @@
       <c r="E12" s="3" t="n">
         <v>-989.344976839</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="2" t="n">
-        <v>11.9689227978088</v>
-      </c>
-      <c r="H12" s="3" t="n">
+      <c r="F12" s="12" t="n">
+        <v>15</v>
+      </c>
+      <c r="G12" s="10" t="n">
+        <v>12.9430268820579</v>
+      </c>
+      <c r="H12" s="9" t="n">
         <v>1106.52640794</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J12" s="2" t="n">
@@ -668,12 +693,12 @@
         <v>177.228941261</v>
       </c>
       <c r="F13" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G13" s="2" t="n">
-        <v>0.257019330070761</v>
-      </c>
-      <c r="H13" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="10" t="n">
+        <v>0.289577243209351</v>
+      </c>
+      <c r="H13" s="9" t="n">
         <v>806.932910796</v>
       </c>
       <c r="I13" s="0" t="n">
@@ -701,12 +726,12 @@
         <v>-388.011624949</v>
       </c>
       <c r="F14" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G14" s="2" t="n">
-        <v>1.69102328003646</v>
-      </c>
-      <c r="H14" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G14" s="10" t="n">
+        <v>1.8980472823896</v>
+      </c>
+      <c r="H14" s="9" t="n">
         <v>2648.15933662</v>
       </c>
       <c r="I14" s="0" t="n">
@@ -734,12 +759,12 @@
         <v>-523.096316927</v>
       </c>
       <c r="F15" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G15" s="2" t="n">
-        <v>0.622443046864646</v>
-      </c>
-      <c r="H15" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" s="10" t="n">
+        <v>0.699736879345437</v>
+      </c>
+      <c r="H15" s="9" t="n">
         <v>1118.87242499</v>
       </c>
       <c r="I15" s="0" t="n">
@@ -767,12 +792,12 @@
         <v>-380.284159976</v>
       </c>
       <c r="F16" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G16" s="2" t="n">
-        <v>1.29723439371446</v>
-      </c>
-      <c r="H16" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10" t="n">
+        <v>1.43650174827781</v>
+      </c>
+      <c r="H16" s="9" t="n">
         <v>2521.4625648</v>
       </c>
       <c r="I16" s="0" t="n">
@@ -799,16 +824,16 @@
       <c r="E17" s="3" t="n">
         <v>-2737.76371059</v>
       </c>
-      <c r="F17" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" s="2" t="n">
-        <v>16.2180049403105</v>
-      </c>
-      <c r="H17" s="3" t="n">
+      <c r="F17" s="9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" s="10" t="n">
+        <v>18.1205135855562</v>
+      </c>
+      <c r="H17" s="9" t="n">
         <v>11896.2320128</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="I17" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J17" s="2" t="n">
@@ -834,13 +859,13 @@
       <c r="E18" s="3" t="n">
         <v>163.83318006</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" s="2" t="n">
-        <v>0.25097179167642</v>
-      </c>
-      <c r="H18" s="3" t="n">
+      <c r="F18" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G18" s="10" t="n">
+        <v>0.274699223075004</v>
+      </c>
+      <c r="H18" s="9" t="n">
         <v>-178.297830093</v>
       </c>
       <c r="I18" s="0" t="n">
@@ -868,15 +893,15 @@
         <v>-243.090832208</v>
       </c>
       <c r="F19" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G19" s="2" t="n">
-        <v>2.03544902529393</v>
-      </c>
-      <c r="H19" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="G19" s="10" t="n">
+        <v>2.21288795422879</v>
+      </c>
+      <c r="H19" s="9" t="n">
         <v>2311.51935148</v>
       </c>
-      <c r="I19" s="9" t="n">
+      <c r="I19" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J19" s="2" t="n">
@@ -901,12 +926,12 @@
         <v>150.331275284</v>
       </c>
       <c r="F20" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G20" s="2" t="n">
-        <v>0.600634710594022</v>
-      </c>
-      <c r="H20" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G20" s="10" t="n">
+        <v>0.629154621623457</v>
+      </c>
+      <c r="H20" s="9" t="n">
         <v>139.696994457</v>
       </c>
       <c r="I20" s="0" t="n">
@@ -924,7 +949,7 @@
       <c r="B21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="9" t="n">
+      <c r="C21" s="11" t="n">
         <v>15</v>
       </c>
       <c r="D21" s="2" t="n">
@@ -933,13 +958,13 @@
       <c r="E21" s="3" t="n">
         <v>-102.934264146</v>
       </c>
-      <c r="F21" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="G21" s="2" t="n">
-        <v>1.45713284723752</v>
-      </c>
-      <c r="H21" s="3" t="n">
+      <c r="F21" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" s="10" t="n">
+        <v>2.3284705439728</v>
+      </c>
+      <c r="H21" s="9" t="n">
         <v>1219.95618631</v>
       </c>
       <c r="I21" s="0" t="n">
@@ -966,16 +991,16 @@
       <c r="E22" s="3" t="n">
         <v>1491.34573686</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G22" s="2" t="n">
-        <v>14.3842628189886</v>
-      </c>
-      <c r="H22" s="3" t="n">
+      <c r="F22" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" s="10" t="n">
+        <v>16.1571750030271</v>
+      </c>
+      <c r="H22" s="9" t="n">
         <v>-6429.55352983</v>
       </c>
-      <c r="I22" s="9" t="n">
+      <c r="I22" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J22" s="2" t="n">
@@ -1002,12 +1027,12 @@
         <v>213.85722355</v>
       </c>
       <c r="F23" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G23" s="2" t="n">
-        <v>0.282607866094622</v>
-      </c>
-      <c r="H23" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G23" s="10" t="n">
+        <v>0.303207415810903</v>
+      </c>
+      <c r="H23" s="9" t="n">
         <v>749.318147575</v>
       </c>
       <c r="I23" s="0" t="n">
@@ -1035,15 +1060,15 @@
         <v>-6.0624130653</v>
       </c>
       <c r="F24" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G24" s="2" t="n">
-        <v>2.51754783690558</v>
-      </c>
-      <c r="H24" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" s="10" t="n">
+        <v>2.69056476443075</v>
+      </c>
+      <c r="H24" s="9" t="n">
         <v>985.993736056</v>
       </c>
-      <c r="I24" s="9" t="n">
+      <c r="I24" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J24" s="2" t="n">
@@ -1068,15 +1093,15 @@
         <v>80.004348799</v>
       </c>
       <c r="F25" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G25" s="2" t="n">
-        <v>0.804313892695063</v>
-      </c>
-      <c r="H25" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" s="10" t="n">
+        <v>0.838747032488755</v>
+      </c>
+      <c r="H25" s="9" t="n">
         <v>432.14275924</v>
       </c>
-      <c r="I25" s="9" t="n">
+      <c r="I25" s="11" t="n">
         <v>15</v>
       </c>
       <c r="J25" s="2" t="n">
@@ -1100,13 +1125,13 @@
       <c r="E26" s="3" t="n">
         <v>-21.0385378184</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2" t="n">
-        <v>2.0923341058442</v>
-      </c>
-      <c r="H26" s="3" t="n">
+      <c r="F26" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" s="10" t="n">
+        <v>2.20142025659879</v>
+      </c>
+      <c r="H26" s="9" t="n">
         <v>253.839358089</v>
       </c>
       <c r="I26" s="0" t="n">
@@ -1133,13 +1158,13 @@
       <c r="E27" s="3" t="n">
         <v>2152.96757772</v>
       </c>
-      <c r="F27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G27" s="2" t="n">
-        <v>87.5793669179475</v>
-      </c>
-      <c r="H27" s="3" t="n">
+      <c r="F27" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="G27" s="10" t="n">
+        <v>97.2292517932729</v>
+      </c>
+      <c r="H27" s="9" t="n">
         <v>-13756.2029148</v>
       </c>
       <c r="I27" s="0" t="n">
@@ -1160,7 +1185,7 @@
         <f aca="false">AVERAGE(C3:C27)</f>
         <v>6.56</v>
       </c>
-      <c r="D28" s="3" t="n">
+      <c r="D28" s="13" t="n">
         <f aca="false">AVERAGE(D3:D27)</f>
         <v>7.94878845814645</v>
       </c>
@@ -1170,11 +1195,11 @@
       </c>
       <c r="F28" s="3" t="n">
         <f aca="false">AVERAGE(F3:F27)</f>
-        <v>10</v>
-      </c>
-      <c r="G28" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G28" s="13" t="n">
         <f aca="false">AVERAGE(G3:G27)</f>
-        <v>6.57148280521418</v>
+        <v>7.30762567939819</v>
       </c>
       <c r="H28" s="3" t="n">
         <f aca="false">AVERAGE(H3:H27)</f>
@@ -1184,7 +1209,7 @@
         <f aca="false">AVERAGE(I3:I27)</f>
         <v>10.48</v>
       </c>
-      <c r="J28" s="3" t="n">
+      <c r="J28" s="13" t="n">
         <f aca="false">AVERAGE(J3:J27)</f>
         <v>7.79325828220055</v>
       </c>
@@ -1222,18 +1247,19 @@
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="10" width="16.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="10" width="14.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="10" width="14.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="16.11"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="10" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="14" width="14.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="14" width="16.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="14" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1258,132 +1284,169 @@
       <c r="G1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="AMI1" s="0"/>
+      <c r="H1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="11" t="n">
+        <v>23</v>
+      </c>
+      <c r="B2" s="15" t="n">
         <v>0.674157303370787</v>
       </c>
-      <c r="C2" s="11" t="n">
+      <c r="C2" s="15" t="n">
         <v>0.623595505617977</v>
       </c>
-      <c r="D2" s="11" t="n">
+      <c r="D2" s="15" t="n">
         <v>0.617977528089888</v>
       </c>
-      <c r="E2" s="11" t="n">
+      <c r="E2" s="15" t="n">
         <v>0.640449438202247</v>
       </c>
-      <c r="F2" s="11" t="n">
+      <c r="F2" s="15" t="n">
         <v>0.617977528089888</v>
       </c>
-      <c r="G2" s="11" t="n">
-        <f aca="false">AVERAGE(B2:F2)</f>
-        <v>0.634831460674157</v>
+      <c r="G2" s="15" t="n">
+        <v>0.455056179775281</v>
+      </c>
+      <c r="H2" s="15" t="n">
+        <v>0.460674157303371</v>
+      </c>
+      <c r="I2" s="15" t="n">
+        <f aca="false">AVERAGE(B2:H2)</f>
+        <v>0.584269662921348</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="11" t="n">
-        <v>0.668539325842697</v>
-      </c>
-      <c r="C3" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="15" t="n">
+        <v>0.606741573033708</v>
+      </c>
+      <c r="C3" s="15" t="n">
         <v>0.662921348314607</v>
       </c>
-      <c r="D3" s="11" t="n">
-        <v>0.617977528089888</v>
-      </c>
-      <c r="E3" s="11" t="n">
-        <v>0.640449438202247</v>
-      </c>
-      <c r="F3" s="11" t="n">
-        <v>0.651685393258427</v>
-      </c>
-      <c r="G3" s="11" t="n">
-        <f aca="false">AVERAGE(B3:F3)</f>
-        <v>0.648314606741573</v>
+      <c r="D3" s="15" t="n">
+        <v>0.612359550561798</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>0.606741573033708</v>
+      </c>
+      <c r="F3" s="15" t="n">
+        <v>0.584269662921348</v>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>0.49438202247191</v>
+      </c>
+      <c r="H3" s="15" t="n">
+        <v>0.49438202247191</v>
+      </c>
+      <c r="I3" s="15" t="n">
+        <f aca="false">AVERAGE(B3:H3)</f>
+        <v>0.580256821829855</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="n">
-        <v>0.578651685393258</v>
-      </c>
-      <c r="C4" s="11" t="n">
-        <v>0.623595505617977</v>
-      </c>
-      <c r="D4" s="11" t="n">
-        <v>0.578651685393258</v>
-      </c>
-      <c r="E4" s="11" t="n">
-        <v>0.657303370786517</v>
-      </c>
-      <c r="F4" s="11" t="n">
-        <v>0.589887640449438</v>
-      </c>
-      <c r="G4" s="11" t="n">
-        <f aca="false">AVERAGE(B4:F4)</f>
-        <v>0.60561797752809</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>0.662921348314607</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>0.617977528089888</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>0.617977528089888</v>
+      </c>
+      <c r="F4" s="15" t="n">
+        <v>0.617977528089888</v>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>0.421348314606742</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <v>0.455056179775281</v>
+      </c>
+      <c r="I4" s="15" t="n">
+        <f aca="false">AVERAGE(B4:H4)</f>
+        <v>0.563402889245586</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="11" t="n">
-        <v>0.606741573033708</v>
-      </c>
-      <c r="C5" s="11" t="n">
-        <v>0.662921348314607</v>
-      </c>
-      <c r="D5" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="15" t="n">
+        <v>0.578651685393258</v>
+      </c>
+      <c r="C5" s="15" t="n">
         <v>0.612359550561798</v>
       </c>
-      <c r="E5" s="11" t="n">
-        <v>0.606741573033708</v>
-      </c>
-      <c r="F5" s="11" t="n">
-        <v>0.584269662921348</v>
-      </c>
-      <c r="G5" s="11" t="n">
-        <f aca="false">AVERAGE(B5:F5)</f>
-        <v>0.614606741573034</v>
+      <c r="D5" s="15" t="n">
+        <v>0.550561797752809</v>
+      </c>
+      <c r="E5" s="15" t="n">
+        <v>0.657303370786517</v>
+      </c>
+      <c r="F5" s="15" t="n">
+        <v>0.589887640449438</v>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>0.387640449438202</v>
+      </c>
+      <c r="H5" s="15" t="n">
+        <v>0.421348314606742</v>
+      </c>
+      <c r="I5" s="15" t="n">
+        <f aca="false">AVERAGE(B5:H5)</f>
+        <v>0.542536115569823</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="11" t="n">
+        <v>22</v>
+      </c>
+      <c r="B6" s="15" t="n">
         <f aca="false">AVERAGE(B2:B5)</f>
-        <v>0.632022471910112</v>
-      </c>
-      <c r="C6" s="11" t="n">
+        <v>0.60252808988764</v>
+      </c>
+      <c r="C6" s="15" t="n">
         <f aca="false">AVERAGE(C2:C5)</f>
-        <v>0.643258426966292</v>
-      </c>
-      <c r="D6" s="11" t="n">
+        <v>0.640449438202247</v>
+      </c>
+      <c r="D6" s="15" t="n">
         <f aca="false">AVERAGE(D2:D5)</f>
-        <v>0.606741573033708</v>
-      </c>
-      <c r="E6" s="11" t="n">
+        <v>0.599719101123595</v>
+      </c>
+      <c r="E6" s="15" t="n">
         <f aca="false">AVERAGE(E2:E5)</f>
-        <v>0.63623595505618</v>
-      </c>
-      <c r="F6" s="11" t="n">
+        <v>0.63061797752809</v>
+      </c>
+      <c r="F6" s="15" t="n">
         <f aca="false">AVERAGE(F2:F5)</f>
-        <v>0.610955056179775</v>
-      </c>
-      <c r="G6" s="11" t="n">
-        <f aca="false">AVERAGE(B2:F5)</f>
-        <v>0.625842696629214</v>
+        <v>0.60252808988764</v>
+      </c>
+      <c r="G6" s="15" t="n">
+        <f aca="false">AVERAGE(G2:G5)</f>
+        <v>0.439606741573034</v>
+      </c>
+      <c r="H6" s="15" t="n">
+        <f aca="false">AVERAGE(H2:H5)</f>
+        <v>0.457865168539326</v>
+      </c>
+      <c r="I6" s="15" t="n">
+        <f aca="false">AVERAGE(B2:H5)</f>
+        <v>0.567616372391653</v>
       </c>
     </row>
   </sheetData>
